--- a/pred_ohlcv/54_21/2019-10-30 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 THETA ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>32672.77382305716</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>57699.40182305715</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>27661.79892305715</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>27661.79892305715</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>34595.69822305715</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>44187.18592305716</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>44068.67762305716</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>11665.77862305715</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>14606.77862305715</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>13592.77862305715</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>14914.77852305715</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>12026.77852305715</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>33926.77852305715</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>29204.77852305715</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>29204.77852305715</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>20442.77852305715</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>20442.77852305715</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>20442.77852305715</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>14103.69142305715</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>14103.69142305715</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>19522.69142305716</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>17124.69142305716</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>17124.69142305716</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>17150.69142305716</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>15055.69142305716</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>10751.37632305716</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>10751.37632305716</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>10751.37632305716</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>12350.37632305716</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>11855.37632305716</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>12641.37632305716</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>14727.37482305716</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-25611.47517694284</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-28840.27327694284</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-25065.81277694284</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-21128.25197694284</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-20819.53897694284</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-20082.07807694284</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-20375.46357694284</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-25763.46357694284</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-25208.46357694284</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-19995.46357694284</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-24654.46357694284</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-23645.46357694284</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-22917.46367694284</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-26157.46347694284</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-30 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 THETA ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>32672.77382305716</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>57699.40182305715</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>27891.72052305715</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>34595.69822305715</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>47887.42932305716</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>47887.42932305716</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>10751.37632305716</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>10751.37632305716</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>12350.37632305716</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>12350.37632305716</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>11855.37632305716</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>12641.37632305716</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>14727.37482305716</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-12514.42497694284</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-21128.25197694284</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-20819.53897694284</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-20082.07807694284</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-20375.46357694284</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-25763.46357694284</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-25208.46357694284</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-19995.46357694284</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-24654.46357694284</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-23645.46357694284</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-23645.46357694284</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-22917.46367694284</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-26157.46347694284</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
